--- a/simulation_results_glmm/April10_fullsimulation/summary-results-bias-edit2.xlsx
+++ b/simulation_results_glmm/April10_fullsimulation/summary-results-bias-edit2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warde\Documents\GitHub\Master-Thesis\simulation_results_glmm\April10_fullsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8296E66A-9D34-4980-BFD9-B6874E9D8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D77677-C54A-4678-AC21-676D9E85BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D9C2198C-DF0F-4268-9DAF-0049D7C23B88}"/>
+    <workbookView minimized="1" xWindow="45705" yWindow="615" windowWidth="21600" windowHeight="11295" xr2:uid="{D9C2198C-DF0F-4268-9DAF-0049D7C23B88}"/>
   </bookViews>
   <sheets>
     <sheet name="summary-results-bias" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <autoFilter ref="A1:AZ379" xr:uid="{0F7CD507-D0DE-44C5-A8B1-CF1935764535}">
     <filterColumn colId="2">
       <filters>
-        <filter val="continuous"/>
+        <filter val="binary"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:AZ379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF166" sqref="AF166"/>
+      <selection activeCell="Z325" sqref="Z325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>100</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>100</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>100</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>100</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>100</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>100</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>100</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>100</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>200</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>100</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>200</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>100</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>200</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>200</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>100</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>100</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>200</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>100</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>200</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>100</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>200</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>100</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>100</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>100</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>200</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>100</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>200</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>100</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>200</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>100</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>200</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>200</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>200</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>100</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>200</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>100</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>200</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>100</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>200</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>100</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>200</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>100</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>200</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>100</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>200</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>100</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>200</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>100</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>200</v>
       </c>
@@ -21854,7 +21854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>100</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>200</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>100</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>200</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>100</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>200</v>
       </c>
@@ -22802,7 +22802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>100</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>200</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>100</v>
       </c>
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>200</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>100</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>200</v>
       </c>
@@ -24698,7 +24698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>100</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>200</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>100</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>200</v>
       </c>
@@ -25330,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>100</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>200</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>100</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>200</v>
       </c>
@@ -26910,7 +26910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>100</v>
       </c>
@@ -27068,7 +27068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>200</v>
       </c>
@@ -27226,7 +27226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>100</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>200</v>
       </c>
@@ -27542,7 +27542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>100</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>200</v>
       </c>
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>100</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>200</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>100</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>200</v>
       </c>
@@ -28490,7 +28490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>100</v>
       </c>
@@ -28648,7 +28648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>200</v>
       </c>
@@ -29754,7 +29754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>100</v>
       </c>
@@ -29912,7 +29912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>200</v>
       </c>
@@ -30070,7 +30070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>100</v>
       </c>
@@ -30228,7 +30228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>200</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>100</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>200</v>
       </c>
@@ -30702,7 +30702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>100</v>
       </c>
@@ -30860,7 +30860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>200</v>
       </c>
@@ -31018,7 +31018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>100</v>
       </c>
@@ -31176,7 +31176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>200</v>
       </c>
@@ -31334,7 +31334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>100</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>200</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>100</v>
       </c>
@@ -32756,7 +32756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -32914,7 +32914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>100</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>200</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>100</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>200</v>
       </c>
@@ -33546,7 +33546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>100</v>
       </c>
@@ -33704,7 +33704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>200</v>
       </c>
@@ -33862,7 +33862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>100</v>
       </c>
@@ -34020,7 +34020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>200</v>
       </c>
@@ -34178,7 +34178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>100</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>200</v>
       </c>
@@ -35442,7 +35442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>100</v>
       </c>
@@ -35600,7 +35600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>200</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>100</v>
       </c>
@@ -35916,7 +35916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>200</v>
       </c>
@@ -36074,7 +36074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>100</v>
       </c>
@@ -36232,7 +36232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>200</v>
       </c>
@@ -36390,7 +36390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>100</v>
       </c>
@@ -36548,7 +36548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>200</v>
       </c>
@@ -36706,7 +36706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>100</v>
       </c>
@@ -36864,7 +36864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>200</v>
       </c>
@@ -37022,7 +37022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>100</v>
       </c>
@@ -37180,7 +37180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>200</v>
       </c>
@@ -38286,7 +38286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>100</v>
       </c>
@@ -38444,7 +38444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>200</v>
       </c>
@@ -38602,7 +38602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>100</v>
       </c>
@@ -38760,7 +38760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>200</v>
       </c>
@@ -38918,7 +38918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>100</v>
       </c>
@@ -39076,7 +39076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>200</v>
       </c>
@@ -39234,7 +39234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>100</v>
       </c>
@@ -39392,7 +39392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>200</v>
       </c>
@@ -39550,7 +39550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>100</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>200</v>
       </c>
@@ -39866,7 +39866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>100</v>
       </c>
@@ -40024,7 +40024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>200</v>
       </c>
@@ -41130,7 +41130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>100</v>
       </c>
@@ -41288,7 +41288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>200</v>
       </c>
@@ -41446,7 +41446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>100</v>
       </c>
@@ -41604,7 +41604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>200</v>
       </c>
@@ -41762,7 +41762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>100</v>
       </c>
@@ -41920,7 +41920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>200</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>100</v>
       </c>
@@ -42236,7 +42236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>200</v>
       </c>
@@ -42394,7 +42394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>100</v>
       </c>
@@ -42552,7 +42552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>200</v>
       </c>
@@ -42710,7 +42710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>100</v>
       </c>
@@ -42868,7 +42868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>200</v>
       </c>
@@ -43974,7 +43974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>100</v>
       </c>
@@ -44132,7 +44132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>200</v>
       </c>
@@ -44290,7 +44290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>100</v>
       </c>
@@ -44448,7 +44448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>200</v>
       </c>
@@ -44606,7 +44606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>100</v>
       </c>
@@ -44764,7 +44764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>200</v>
       </c>
@@ -44922,7 +44922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>100</v>
       </c>
@@ -45080,7 +45080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>200</v>
       </c>
@@ -45238,7 +45238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>100</v>
       </c>
@@ -45396,7 +45396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>200</v>
       </c>
@@ -45554,7 +45554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>100</v>
       </c>
@@ -45712,7 +45712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>200</v>
       </c>
@@ -46818,7 +46818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>100</v>
       </c>
@@ -46976,7 +46976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>200</v>
       </c>
@@ -47134,7 +47134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>100</v>
       </c>
@@ -47292,7 +47292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>200</v>
       </c>
@@ -47450,7 +47450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>100</v>
       </c>
@@ -47608,7 +47608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>200</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>100</v>
       </c>
@@ -47924,7 +47924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>200</v>
       </c>
@@ -48082,7 +48082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>100</v>
       </c>
@@ -48240,7 +48240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>200</v>
       </c>
@@ -48398,7 +48398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>100</v>
       </c>
@@ -48556,7 +48556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>200</v>
       </c>
@@ -49662,7 +49662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>100</v>
       </c>
@@ -49820,7 +49820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>200</v>
       </c>
@@ -49978,7 +49978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>100</v>
       </c>
@@ -50136,7 +50136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>200</v>
       </c>
@@ -50294,7 +50294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>100</v>
       </c>
@@ -50452,7 +50452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>200</v>
       </c>
@@ -50610,7 +50610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>100</v>
       </c>
@@ -50768,7 +50768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>200</v>
       </c>
@@ -50926,7 +50926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>100</v>
       </c>
@@ -51084,7 +51084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>200</v>
       </c>
@@ -51242,7 +51242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>100</v>
       </c>
@@ -51400,7 +51400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>200</v>
       </c>
@@ -52506,7 +52506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>100</v>
       </c>
@@ -52664,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>200</v>
       </c>
@@ -52822,7 +52822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>100</v>
       </c>
@@ -52980,7 +52980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>200</v>
       </c>
@@ -53138,7 +53138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>100</v>
       </c>
@@ -53296,7 +53296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>200</v>
       </c>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>100</v>
       </c>
@@ -53612,7 +53612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>200</v>
       </c>
@@ -53770,7 +53770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>100</v>
       </c>
@@ -53928,7 +53928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>200</v>
       </c>
@@ -54086,7 +54086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>100</v>
       </c>
@@ -54244,7 +54244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>200</v>
       </c>
@@ -55350,7 +55350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>100</v>
       </c>
@@ -55508,7 +55508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>200</v>
       </c>
@@ -55666,7 +55666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>100</v>
       </c>
@@ -55824,7 +55824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>200</v>
       </c>
@@ -55982,7 +55982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>100</v>
       </c>
@@ -56140,7 +56140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>200</v>
       </c>
@@ -56298,7 +56298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>100</v>
       </c>
@@ -56456,7 +56456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>200</v>
       </c>
@@ -56614,7 +56614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>100</v>
       </c>
@@ -56772,7 +56772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>200</v>
       </c>
@@ -56930,7 +56930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>100</v>
       </c>
@@ -57088,7 +57088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>200</v>
       </c>
@@ -58194,7 +58194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>100</v>
       </c>
@@ -58352,7 +58352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>200</v>
       </c>
@@ -58510,7 +58510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>100</v>
       </c>
@@ -58668,7 +58668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>200</v>
       </c>
@@ -58826,7 +58826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>100</v>
       </c>
@@ -58984,7 +58984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>200</v>
       </c>
@@ -59142,7 +59142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>100</v>
       </c>
@@ -59300,7 +59300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>200</v>
       </c>
@@ -59458,7 +59458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>100</v>
       </c>
@@ -59616,7 +59616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>200</v>
       </c>
@@ -59774,7 +59774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>100</v>
       </c>
@@ -59932,7 +59932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>200</v>
       </c>

--- a/simulation_results_glmm/April10_fullsimulation/summary-results-bias-edit2.xlsx
+++ b/simulation_results_glmm/April10_fullsimulation/summary-results-bias-edit2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warde\Documents\GitHub\Master-Thesis\simulation_results_glmm\April10_fullsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D77677-C54A-4678-AC21-676D9E85BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F8F0C-C055-4D54-88CF-29B0DCDBCD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="45705" yWindow="615" windowWidth="21600" windowHeight="11295" xr2:uid="{D9C2198C-DF0F-4268-9DAF-0049D7C23B88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D9C2198C-DF0F-4268-9DAF-0049D7C23B88}"/>
   </bookViews>
   <sheets>
     <sheet name="summary-results-bias" sheetId="1" r:id="rId1"/>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419CF538-7CF6-4F5E-BC54-8788BFAEC5CE}">
   <dimension ref="A1:AZ379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z325" sqref="Z325"/>
+    <sheetView tabSelected="1" topLeftCell="T166" workbookViewId="0">
+      <selection activeCell="Y259" sqref="Y259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,16 +1130,12 @@
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" customWidth="1"/>
-    <col min="21" max="25" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="31" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="27.7109375" customWidth="1"/>
-    <col min="33" max="37" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="25" width="27.140625" customWidth="1"/>
+    <col min="26" max="31" width="17.42578125" customWidth="1"/>
+    <col min="32" max="37" width="27.7109375" customWidth="1"/>
     <col min="38" max="39" width="12.85546875" customWidth="1"/>
     <col min="40" max="40" width="13.85546875" customWidth="1"/>
     <col min="41" max="41" width="12.85546875" customWidth="1"/>
